--- a/Code/Results/Cases/Case_4_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017907358094102</v>
+        <v>1.052438541728832</v>
       </c>
       <c r="D2">
-        <v>1.037689546373245</v>
+        <v>1.05811653983289</v>
       </c>
       <c r="E2">
-        <v>1.035798296399553</v>
+        <v>1.065480819714477</v>
       </c>
       <c r="F2">
-        <v>1.042919052423935</v>
+        <v>1.071575003673295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055648760759079</v>
+        <v>1.04318107110154</v>
       </c>
       <c r="J2">
-        <v>1.039565344080233</v>
+        <v>1.057461142390235</v>
       </c>
       <c r="K2">
-        <v>1.048647637699376</v>
+        <v>1.060849653076864</v>
       </c>
       <c r="L2">
-        <v>1.046780453576438</v>
+        <v>1.068193944902512</v>
       </c>
       <c r="M2">
-        <v>1.053811165721839</v>
+        <v>1.074271812736264</v>
       </c>
       <c r="N2">
-        <v>1.041041646108638</v>
+        <v>1.058962858504917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023503230741749</v>
+        <v>1.053605160018208</v>
       </c>
       <c r="D3">
-        <v>1.042144588696513</v>
+        <v>1.059051079870336</v>
       </c>
       <c r="E3">
-        <v>1.040941268400075</v>
+        <v>1.066604246093982</v>
       </c>
       <c r="F3">
-        <v>1.048116259136187</v>
+        <v>1.072705262244345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057425258485834</v>
+        <v>1.043449227149097</v>
       </c>
       <c r="J3">
-        <v>1.043373053622191</v>
+        <v>1.058277188405152</v>
       </c>
       <c r="K3">
-        <v>1.052265190042234</v>
+        <v>1.061597857029376</v>
       </c>
       <c r="L3">
-        <v>1.051075785176891</v>
+        <v>1.069132008682469</v>
       </c>
       <c r="M3">
-        <v>1.058168386091377</v>
+        <v>1.075217876375621</v>
       </c>
       <c r="N3">
-        <v>1.044854763034897</v>
+        <v>1.059780063398778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027039166702993</v>
+        <v>1.054359975593028</v>
       </c>
       <c r="D4">
-        <v>1.044959855556258</v>
+        <v>1.059655353741973</v>
       </c>
       <c r="E4">
-        <v>1.044196078456497</v>
+        <v>1.067331404611604</v>
       </c>
       <c r="F4">
-        <v>1.051404649168591</v>
+        <v>1.073436734134581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058532582109624</v>
+        <v>1.04362084525048</v>
       </c>
       <c r="J4">
-        <v>1.045775616303042</v>
+        <v>1.058804608385093</v>
       </c>
       <c r="K4">
-        <v>1.054544325278221</v>
+        <v>1.062080932490133</v>
       </c>
       <c r="L4">
-        <v>1.053788825624822</v>
+        <v>1.06973863480127</v>
       </c>
       <c r="M4">
-        <v>1.060919859791787</v>
+        <v>1.075829571415243</v>
       </c>
       <c r="N4">
-        <v>1.047260737630332</v>
+        <v>1.060308232375585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028506201594978</v>
+        <v>1.054677285756479</v>
       </c>
       <c r="D5">
-        <v>1.046127869625675</v>
+        <v>1.059909286271834</v>
       </c>
       <c r="E5">
-        <v>1.045547640856603</v>
+        <v>1.067637156829645</v>
       </c>
       <c r="F5">
-        <v>1.052769972784062</v>
+        <v>1.073744273912814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05898829602856</v>
+        <v>1.043692539397632</v>
       </c>
       <c r="J5">
-        <v>1.046771548660825</v>
+        <v>1.059026188640041</v>
       </c>
       <c r="K5">
-        <v>1.055488248894703</v>
+        <v>1.062283763298383</v>
       </c>
       <c r="L5">
-        <v>1.054914134313095</v>
+        <v>1.069993573789368</v>
       </c>
       <c r="M5">
-        <v>1.062060946788024</v>
+        <v>1.076086615586815</v>
       </c>
       <c r="N5">
-        <v>1.048258084326299</v>
+        <v>1.060530127299912</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028751405600538</v>
+        <v>1.054730562723162</v>
       </c>
       <c r="D6">
-        <v>1.046323091379102</v>
+        <v>1.059951916555361</v>
       </c>
       <c r="E6">
-        <v>1.045773611615967</v>
+        <v>1.067688497200394</v>
       </c>
       <c r="F6">
-        <v>1.05299823343056</v>
+        <v>1.073795912909669</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059064245679422</v>
+        <v>1.043704550531321</v>
       </c>
       <c r="J6">
-        <v>1.046937958770006</v>
+        <v>1.059063384326659</v>
       </c>
       <c r="K6">
-        <v>1.055645918692695</v>
+        <v>1.062317804589456</v>
       </c>
       <c r="L6">
-        <v>1.055102201596227</v>
+        <v>1.070036374100971</v>
       </c>
       <c r="M6">
-        <v>1.062251641291161</v>
+        <v>1.076129767854143</v>
       </c>
       <c r="N6">
-        <v>1.048424730756922</v>
+        <v>1.060567375808671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027058844698276</v>
+        <v>1.05436421556176</v>
       </c>
       <c r="D7">
-        <v>1.044975522820343</v>
+        <v>1.059658747210119</v>
       </c>
       <c r="E7">
-        <v>1.044214203025459</v>
+        <v>1.067335489871797</v>
       </c>
       <c r="F7">
-        <v>1.051422959005239</v>
+        <v>1.073440843381602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058538709530131</v>
+        <v>1.043621805015519</v>
       </c>
       <c r="J7">
-        <v>1.045788978699323</v>
+        <v>1.058807569728772</v>
       </c>
       <c r="K7">
-        <v>1.054556993237916</v>
+        <v>1.06208364372352</v>
       </c>
       <c r="L7">
-        <v>1.053803921190543</v>
+        <v>1.069742041648327</v>
       </c>
       <c r="M7">
-        <v>1.060935167668203</v>
+        <v>1.075833006493268</v>
       </c>
       <c r="N7">
-        <v>1.047274119002748</v>
+        <v>1.060311197924713</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019816643063728</v>
+        <v>1.052832819871069</v>
       </c>
       <c r="D8">
-        <v>1.039209499952931</v>
+        <v>1.05843246240599</v>
       </c>
       <c r="E8">
-        <v>1.037551961459325</v>
+        <v>1.065860440345208</v>
       </c>
       <c r="F8">
-        <v>1.044691363788179</v>
+        <v>1.071956955510614</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05625805573386</v>
+        <v>1.043272088434486</v>
       </c>
       <c r="J8">
-        <v>1.040865217428182</v>
+        <v>1.057737056857172</v>
       </c>
       <c r="K8">
-        <v>1.049883308338397</v>
+        <v>1.061102732265271</v>
       </c>
       <c r="L8">
-        <v>1.048246202933801</v>
+        <v>1.068511043581803</v>
       </c>
       <c r="M8">
-        <v>1.055298169048676</v>
+        <v>1.074591637239294</v>
       </c>
       <c r="N8">
-        <v>1.04234336542584</v>
+        <v>1.059239164802045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006362202288776</v>
+        <v>1.050133760179284</v>
       </c>
       <c r="D9">
-        <v>1.028502491427001</v>
+        <v>1.056268243529698</v>
       </c>
       <c r="E9">
-        <v>1.025217868292889</v>
+        <v>1.063262924382915</v>
       </c>
       <c r="F9">
-        <v>1.032223156538432</v>
+        <v>1.069343043700957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051901855363132</v>
+        <v>1.042641315672917</v>
       </c>
       <c r="J9">
-        <v>1.031692277994924</v>
+        <v>1.055845934898941</v>
       </c>
       <c r="K9">
-        <v>1.041149462476239</v>
+        <v>1.059366090991897</v>
       </c>
       <c r="L9">
-        <v>1.037914636278456</v>
+        <v>1.066339058687364</v>
       </c>
       <c r="M9">
-        <v>1.044814207072257</v>
+        <v>1.072400555638437</v>
       </c>
       <c r="N9">
-        <v>1.033157399366435</v>
+        <v>1.057345357233719</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968630302117412</v>
+        <v>1.048333946441267</v>
       </c>
       <c r="D10">
-        <v>1.020951592744627</v>
+        <v>1.054823163598723</v>
       </c>
       <c r="E10">
-        <v>1.016542504444244</v>
+        <v>1.061532358080504</v>
       </c>
       <c r="F10">
-        <v>1.023449912827194</v>
+        <v>1.067600996900605</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048749205338856</v>
+        <v>1.042211030590215</v>
       </c>
       <c r="J10">
-        <v>1.025201664254518</v>
+        <v>1.054581966962958</v>
       </c>
       <c r="K10">
-        <v>1.034952590542465</v>
+        <v>1.058202830325939</v>
       </c>
       <c r="L10">
-        <v>1.030619367206461</v>
+        <v>1.064889146041955</v>
       </c>
       <c r="M10">
-        <v>1.037408297889959</v>
+        <v>1.070937362456106</v>
       </c>
       <c r="N10">
-        <v>1.026657568210034</v>
+        <v>1.056079594318288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9926082941222263</v>
+        <v>1.047554485279862</v>
       </c>
       <c r="D11">
-        <v>1.017572763552199</v>
+        <v>1.054196885562752</v>
       </c>
       <c r="E11">
-        <v>1.012665452570244</v>
+        <v>1.06078325766702</v>
       </c>
       <c r="F11">
-        <v>1.019528355527794</v>
+        <v>1.066846795358711</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04731973793337</v>
+        <v>1.042022393910516</v>
       </c>
       <c r="J11">
-        <v>1.022291842896345</v>
+        <v>1.054033883159373</v>
       </c>
       <c r="K11">
-        <v>1.032170721674953</v>
+        <v>1.057697815659244</v>
       </c>
       <c r="L11">
-        <v>1.027352405374086</v>
+        <v>1.06426085327521</v>
       </c>
       <c r="M11">
-        <v>1.034091158873768</v>
+        <v>1.070303189335274</v>
       </c>
       <c r="N11">
-        <v>1.023743614571772</v>
+        <v>1.055530732172836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9910051331373063</v>
+        <v>1.047264937566294</v>
       </c>
       <c r="D12">
-        <v>1.016300243816505</v>
+        <v>1.053964175021989</v>
       </c>
       <c r="E12">
-        <v>1.011205991190132</v>
+        <v>1.060505044467161</v>
       </c>
       <c r="F12">
-        <v>1.018052033500182</v>
+        <v>1.066566667878478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046778594702902</v>
+        <v>1.041951977042902</v>
       </c>
       <c r="J12">
-        <v>1.021195111395896</v>
+        <v>1.053830182849989</v>
       </c>
       <c r="K12">
-        <v>1.031121680914048</v>
+        <v>1.057510032555787</v>
       </c>
       <c r="L12">
-        <v>1.026121605712572</v>
+        <v>1.064027405753488</v>
       </c>
       <c r="M12">
-        <v>1.032841368805955</v>
+        <v>1.070067538131518</v>
       </c>
       <c r="N12">
-        <v>1.022645325586794</v>
+        <v>1.055326742585647</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9913500722485848</v>
+        <v>1.04732704751597</v>
       </c>
       <c r="D13">
-        <v>1.016574012326189</v>
+        <v>1.054014095987131</v>
       </c>
       <c r="E13">
-        <v>1.011519947422925</v>
+        <v>1.060564720526948</v>
       </c>
       <c r="F13">
-        <v>1.018369621477995</v>
+        <v>1.066626755439477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046895140871404</v>
+        <v>1.041967097487369</v>
       </c>
       <c r="J13">
-        <v>1.021431099796891</v>
+        <v>1.053873882591434</v>
       </c>
       <c r="K13">
-        <v>1.031347431246532</v>
+        <v>1.057550321646076</v>
       </c>
       <c r="L13">
-        <v>1.02638641771415</v>
+        <v>1.064077484293684</v>
       </c>
       <c r="M13">
-        <v>1.033110270451808</v>
+        <v>1.070118090248758</v>
       </c>
       <c r="N13">
-        <v>1.022881649118387</v>
+        <v>1.055370504385738</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9924762498420351</v>
+        <v>1.047530551615969</v>
       </c>
       <c r="D14">
-        <v>1.017467939563942</v>
+        <v>1.054177651332981</v>
       </c>
       <c r="E14">
-        <v>1.012545215362039</v>
+        <v>1.060760259747255</v>
       </c>
       <c r="F14">
-        <v>1.019406731394606</v>
+        <v>1.066823639601399</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047275217536775</v>
+        <v>1.042016580346931</v>
       </c>
       <c r="J14">
-        <v>1.022201516881157</v>
+        <v>1.054017047631488</v>
       </c>
       <c r="K14">
-        <v>1.032084334153776</v>
+        <v>1.057682297495378</v>
       </c>
       <c r="L14">
-        <v>1.027251026623267</v>
+        <v>1.064241557896054</v>
       </c>
       <c r="M14">
-        <v>1.033988217627123</v>
+        <v>1.070283712195736</v>
       </c>
       <c r="N14">
-        <v>1.023653160283281</v>
+        <v>1.05551387273657</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9931670615958471</v>
+        <v>1.047655934359897</v>
       </c>
       <c r="D15">
-        <v>1.018016369111508</v>
+        <v>1.054278412166208</v>
       </c>
       <c r="E15">
-        <v>1.013174313565233</v>
+        <v>1.060880742662791</v>
       </c>
       <c r="F15">
-        <v>1.020043081865202</v>
+        <v>1.066944948597766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047508031023235</v>
+        <v>1.042047022143878</v>
       </c>
       <c r="J15">
-        <v>1.022674059660436</v>
+        <v>1.054105240733206</v>
       </c>
       <c r="K15">
-        <v>1.032536250962644</v>
+        <v>1.057763585894655</v>
       </c>
       <c r="L15">
-        <v>1.02778141407011</v>
+        <v>1.064342639542662</v>
       </c>
       <c r="M15">
-        <v>1.034526776172659</v>
+        <v>1.070385745251641</v>
       </c>
       <c r="N15">
-        <v>1.024126374127508</v>
+        <v>1.055602191082608</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9971422962580848</v>
+        <v>1.048385673836425</v>
       </c>
       <c r="D16">
-        <v>1.021173444574783</v>
+        <v>1.054864715999961</v>
       </c>
       <c r="E16">
-        <v>1.016797168267608</v>
+        <v>1.061582078514915</v>
       </c>
       <c r="F16">
-        <v>1.023707484730096</v>
+        <v>1.067651053144347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048842676306829</v>
+        <v>1.042223500880967</v>
       </c>
       <c r="J16">
-        <v>1.025392605708476</v>
+        <v>1.054618325034506</v>
       </c>
       <c r="K16">
-        <v>1.035135060324984</v>
+        <v>1.058236318727987</v>
       </c>
       <c r="L16">
-        <v>1.030833818824475</v>
+        <v>1.06493083376753</v>
       </c>
       <c r="M16">
-        <v>1.037626030833398</v>
+        <v>1.070979437710525</v>
       </c>
       <c r="N16">
-        <v>1.026848780822758</v>
+        <v>1.056116004022468</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9995969476855565</v>
+        <v>1.048843384207577</v>
       </c>
       <c r="D17">
-        <v>1.023123828334182</v>
+        <v>1.05523234158136</v>
       </c>
       <c r="E17">
-        <v>1.019036570907737</v>
+        <v>1.062022073221036</v>
       </c>
       <c r="F17">
-        <v>1.025972373958088</v>
+        <v>1.06809400434856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049662291443452</v>
+        <v>1.042333579959686</v>
       </c>
       <c r="J17">
-        <v>1.027070623415534</v>
+        <v>1.054939960585253</v>
       </c>
       <c r="K17">
-        <v>1.036738207216273</v>
+        <v>1.058532499036789</v>
       </c>
       <c r="L17">
-        <v>1.032718854708935</v>
+        <v>1.065299665762632</v>
       </c>
       <c r="M17">
-        <v>1.039539839050281</v>
+        <v>1.071351683883883</v>
       </c>
       <c r="N17">
-        <v>1.028529181507431</v>
+        <v>1.056438096332589</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001015156788579</v>
+        <v>1.049110346494656</v>
       </c>
       <c r="D18">
-        <v>1.024250990460069</v>
+        <v>1.055446718439305</v>
       </c>
       <c r="E18">
-        <v>1.020331233371732</v>
+        <v>1.062278738508895</v>
       </c>
       <c r="F18">
-        <v>1.027281698238758</v>
+        <v>1.068352381566501</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05013418692732</v>
+        <v>1.04239756335217</v>
       </c>
       <c r="J18">
-        <v>1.028039867504586</v>
+        <v>1.055127490211269</v>
       </c>
       <c r="K18">
-        <v>1.037663850214954</v>
+        <v>1.05870512914961</v>
       </c>
       <c r="L18">
-        <v>1.033808014918751</v>
+        <v>1.065514753835509</v>
       </c>
       <c r="M18">
-        <v>1.040645563535157</v>
+        <v>1.071568750863069</v>
       </c>
       <c r="N18">
-        <v>1.029499802034263</v>
+        <v>1.056625892272183</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001496474863314</v>
+        <v>1.049201371676467</v>
       </c>
       <c r="D19">
-        <v>1.024633579471803</v>
+        <v>1.055519806447001</v>
       </c>
       <c r="E19">
-        <v>1.02077075772615</v>
+        <v>1.062366258808102</v>
       </c>
       <c r="F19">
-        <v>1.027726187583675</v>
+        <v>1.068440483460619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050294058876491</v>
+        <v>1.042419342068762</v>
       </c>
       <c r="J19">
-        <v>1.028368768775703</v>
+        <v>1.055191420278937</v>
       </c>
       <c r="K19">
-        <v>1.037977895060911</v>
+        <v>1.058763970058688</v>
       </c>
       <c r="L19">
-        <v>1.034177665919847</v>
+        <v>1.065588085636789</v>
       </c>
       <c r="M19">
-        <v>1.041020825859926</v>
+        <v>1.071642755294286</v>
       </c>
       <c r="N19">
-        <v>1.029829170382911</v>
+        <v>1.056689913127881</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9993349985021436</v>
+        <v>1.048794277513405</v>
       </c>
       <c r="D20">
-        <v>1.022915660290594</v>
+        <v>1.055192904313448</v>
       </c>
       <c r="E20">
-        <v>1.018797506767236</v>
+        <v>1.061974863495931</v>
       </c>
       <c r="F20">
-        <v>1.025730596529883</v>
+        <v>1.068046478716535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049574996436953</v>
+        <v>1.042321792673707</v>
       </c>
       <c r="J20">
-        <v>1.026891578931708</v>
+        <v>1.054905459892471</v>
       </c>
       <c r="K20">
-        <v>1.036567188103326</v>
+        <v>1.058500734817469</v>
       </c>
       <c r="L20">
-        <v>1.0325176861039</v>
+        <v>1.06526009828094</v>
       </c>
       <c r="M20">
-        <v>1.039335606089589</v>
+        <v>1.071311751388492</v>
       </c>
       <c r="N20">
-        <v>1.028349882759901</v>
+        <v>1.056403546644865</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9921452597000031</v>
+        <v>1.047470625327055</v>
       </c>
       <c r="D21">
-        <v>1.017205191576172</v>
+        <v>1.054129490655443</v>
       </c>
       <c r="E21">
-        <v>1.012243844214889</v>
+        <v>1.060702677333086</v>
       </c>
       <c r="F21">
-        <v>1.019101882259166</v>
+        <v>1.066765661673292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047163579628106</v>
+        <v>1.042002018508429</v>
       </c>
       <c r="J21">
-        <v>1.021975095234619</v>
+        <v>1.053974892347708</v>
       </c>
       <c r="K21">
-        <v>1.031867776663723</v>
+        <v>1.057643439372405</v>
       </c>
       <c r="L21">
-        <v>1.026996907612224</v>
+        <v>1.0641932442933</v>
       </c>
       <c r="M21">
-        <v>1.033730180651988</v>
+        <v>1.070234943180842</v>
       </c>
       <c r="N21">
-        <v>1.023426417092034</v>
+        <v>1.055471657587452</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9874922420433867</v>
+        <v>1.046638269593525</v>
       </c>
       <c r="D22">
-        <v>1.013513108978896</v>
+        <v>1.053460399841218</v>
       </c>
       <c r="E22">
-        <v>1.008010636518865</v>
+        <v>1.059903011487016</v>
       </c>
       <c r="F22">
-        <v>1.014819575367953</v>
+        <v>1.065960456480527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04558826889557</v>
+        <v>1.041798945617991</v>
       </c>
       <c r="J22">
-        <v>1.018791401596444</v>
+        <v>1.053389126912124</v>
       </c>
       <c r="K22">
-        <v>1.028821538978627</v>
+        <v>1.057103276850494</v>
       </c>
       <c r="L22">
-        <v>1.023425054116503</v>
+        <v>1.063522056090927</v>
       </c>
       <c r="M22">
-        <v>1.030103061326678</v>
+        <v>1.06955738381574</v>
       </c>
       <c r="N22">
-        <v>1.020238202243718</v>
+        <v>1.054885060297761</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899719959088572</v>
+        <v>1.047079529321466</v>
       </c>
       <c r="D23">
-        <v>1.015480369544843</v>
+        <v>1.053815143260542</v>
       </c>
       <c r="E23">
-        <v>1.010265862251079</v>
+        <v>1.060326910074835</v>
       </c>
       <c r="F23">
-        <v>1.017101014337883</v>
+        <v>1.066387302258114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046429160048567</v>
+        <v>1.041906789765167</v>
       </c>
       <c r="J23">
-        <v>1.020488253307437</v>
+        <v>1.053699717040386</v>
       </c>
       <c r="K23">
-        <v>1.030445412590917</v>
+        <v>1.057389736130122</v>
       </c>
       <c r="L23">
-        <v>1.025328491302768</v>
+        <v>1.063877905255194</v>
       </c>
       <c r="M23">
-        <v>1.032035993840124</v>
+        <v>1.069916621108016</v>
       </c>
       <c r="N23">
-        <v>1.021937463678772</v>
+        <v>1.055196091499631</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9994534038179849</v>
+        <v>1.048816466752654</v>
       </c>
       <c r="D24">
-        <v>1.023009754727037</v>
+        <v>1.05521072448052</v>
       </c>
       <c r="E24">
-        <v>1.018905565142731</v>
+        <v>1.061996195464642</v>
       </c>
       <c r="F24">
-        <v>1.0258398815532</v>
+        <v>1.068067953468747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049614460329092</v>
+        <v>1.042327119532456</v>
       </c>
       <c r="J24">
-        <v>1.02697251076059</v>
+        <v>1.054921049501757</v>
       </c>
       <c r="K24">
-        <v>1.036644493400514</v>
+        <v>1.058515088092585</v>
       </c>
       <c r="L24">
-        <v>1.032608617441044</v>
+        <v>1.065277977262682</v>
       </c>
       <c r="M24">
-        <v>1.039427922750431</v>
+        <v>1.071329795342918</v>
       </c>
       <c r="N24">
-        <v>1.028430929521263</v>
+        <v>1.056419158393185</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009928837289187</v>
+        <v>1.050831604004078</v>
       </c>
       <c r="D25">
-        <v>1.031339732591701</v>
+        <v>1.056828144407369</v>
       </c>
       <c r="E25">
-        <v>1.02848216047823</v>
+        <v>1.063934245849413</v>
       </c>
       <c r="F25">
-        <v>1.035523577278285</v>
+        <v>1.070018700991869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053070143725595</v>
+        <v>1.042806107362481</v>
       </c>
       <c r="J25">
-        <v>1.034126615134001</v>
+        <v>1.056335400425</v>
       </c>
       <c r="K25">
-        <v>1.043470267504971</v>
+        <v>1.059816022254732</v>
       </c>
       <c r="L25">
-        <v>1.040653850735087</v>
+        <v>1.066900905214148</v>
       </c>
       <c r="M25">
-        <v>1.047594373861739</v>
+        <v>1.072967436161269</v>
       </c>
       <c r="N25">
-        <v>1.035595193543473</v>
+        <v>1.057835517856968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052438541728832</v>
+        <v>1.017907358094102</v>
       </c>
       <c r="D2">
-        <v>1.05811653983289</v>
+        <v>1.037689546373245</v>
       </c>
       <c r="E2">
-        <v>1.065480819714477</v>
+        <v>1.035798296399552</v>
       </c>
       <c r="F2">
-        <v>1.071575003673295</v>
+        <v>1.042919052423935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04318107110154</v>
+        <v>1.055648760759079</v>
       </c>
       <c r="J2">
-        <v>1.057461142390235</v>
+        <v>1.039565344080233</v>
       </c>
       <c r="K2">
-        <v>1.060849653076864</v>
+        <v>1.048647637699376</v>
       </c>
       <c r="L2">
-        <v>1.068193944902512</v>
+        <v>1.046780453576438</v>
       </c>
       <c r="M2">
-        <v>1.074271812736264</v>
+        <v>1.053811165721839</v>
       </c>
       <c r="N2">
-        <v>1.058962858504917</v>
+        <v>1.041041646108638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053605160018208</v>
+        <v>1.023503230741747</v>
       </c>
       <c r="D3">
-        <v>1.059051079870336</v>
+        <v>1.042144588696511</v>
       </c>
       <c r="E3">
-        <v>1.066604246093982</v>
+        <v>1.040941268400074</v>
       </c>
       <c r="F3">
-        <v>1.072705262244345</v>
+        <v>1.048116259136186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043449227149097</v>
+        <v>1.057425258485833</v>
       </c>
       <c r="J3">
-        <v>1.058277188405152</v>
+        <v>1.04337305362219</v>
       </c>
       <c r="K3">
-        <v>1.061597857029376</v>
+        <v>1.052265190042233</v>
       </c>
       <c r="L3">
-        <v>1.069132008682469</v>
+        <v>1.05107578517689</v>
       </c>
       <c r="M3">
-        <v>1.075217876375621</v>
+        <v>1.058168386091376</v>
       </c>
       <c r="N3">
-        <v>1.059780063398778</v>
+        <v>1.044854763034895</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054359975593028</v>
+        <v>1.027039166702994</v>
       </c>
       <c r="D4">
-        <v>1.059655353741973</v>
+        <v>1.044959855556258</v>
       </c>
       <c r="E4">
-        <v>1.067331404611604</v>
+        <v>1.044196078456497</v>
       </c>
       <c r="F4">
-        <v>1.073436734134581</v>
+        <v>1.051404649168591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04362084525048</v>
+        <v>1.058532582109624</v>
       </c>
       <c r="J4">
-        <v>1.058804608385093</v>
+        <v>1.045775616303043</v>
       </c>
       <c r="K4">
-        <v>1.062080932490133</v>
+        <v>1.054544325278221</v>
       </c>
       <c r="L4">
-        <v>1.06973863480127</v>
+        <v>1.053788825624822</v>
       </c>
       <c r="M4">
-        <v>1.075829571415243</v>
+        <v>1.060919859791787</v>
       </c>
       <c r="N4">
-        <v>1.060308232375585</v>
+        <v>1.047260737630333</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054677285756479</v>
+        <v>1.02850620159498</v>
       </c>
       <c r="D5">
-        <v>1.059909286271834</v>
+        <v>1.046127869625676</v>
       </c>
       <c r="E5">
-        <v>1.067637156829645</v>
+        <v>1.045547640856606</v>
       </c>
       <c r="F5">
-        <v>1.073744273912814</v>
+        <v>1.052769972784064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043692539397632</v>
+        <v>1.058988296028561</v>
       </c>
       <c r="J5">
-        <v>1.059026188640041</v>
+        <v>1.046771548660827</v>
       </c>
       <c r="K5">
-        <v>1.062283763298383</v>
+        <v>1.055488248894705</v>
       </c>
       <c r="L5">
-        <v>1.069993573789368</v>
+        <v>1.054914134313097</v>
       </c>
       <c r="M5">
-        <v>1.076086615586815</v>
+        <v>1.062060946788025</v>
       </c>
       <c r="N5">
-        <v>1.060530127299912</v>
+        <v>1.0482580843263</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054730562723162</v>
+        <v>1.028751405600538</v>
       </c>
       <c r="D6">
-        <v>1.059951916555361</v>
+        <v>1.046323091379102</v>
       </c>
       <c r="E6">
-        <v>1.067688497200394</v>
+        <v>1.045773611615968</v>
       </c>
       <c r="F6">
-        <v>1.073795912909669</v>
+        <v>1.052998233430561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043704550531321</v>
+        <v>1.059064245679422</v>
       </c>
       <c r="J6">
-        <v>1.059063384326659</v>
+        <v>1.046937958770006</v>
       </c>
       <c r="K6">
-        <v>1.062317804589456</v>
+        <v>1.055645918692695</v>
       </c>
       <c r="L6">
-        <v>1.070036374100971</v>
+        <v>1.055102201596227</v>
       </c>
       <c r="M6">
-        <v>1.076129767854143</v>
+        <v>1.062251641291162</v>
       </c>
       <c r="N6">
-        <v>1.060567375808671</v>
+        <v>1.048424730756922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05436421556176</v>
+        <v>1.027058844698276</v>
       </c>
       <c r="D7">
-        <v>1.059658747210119</v>
+        <v>1.044975522820343</v>
       </c>
       <c r="E7">
-        <v>1.067335489871797</v>
+        <v>1.044214203025458</v>
       </c>
       <c r="F7">
-        <v>1.073440843381602</v>
+        <v>1.051422959005238</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043621805015519</v>
+        <v>1.058538709530131</v>
       </c>
       <c r="J7">
-        <v>1.058807569728772</v>
+        <v>1.045788978699322</v>
       </c>
       <c r="K7">
-        <v>1.06208364372352</v>
+        <v>1.054556993237915</v>
       </c>
       <c r="L7">
-        <v>1.069742041648327</v>
+        <v>1.053803921190543</v>
       </c>
       <c r="M7">
-        <v>1.075833006493268</v>
+        <v>1.060935167668203</v>
       </c>
       <c r="N7">
-        <v>1.060311197924713</v>
+        <v>1.047274119002748</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052832819871069</v>
+        <v>1.019816643063727</v>
       </c>
       <c r="D8">
-        <v>1.05843246240599</v>
+        <v>1.03920949995293</v>
       </c>
       <c r="E8">
-        <v>1.065860440345208</v>
+        <v>1.037551961459324</v>
       </c>
       <c r="F8">
-        <v>1.071956955510614</v>
+        <v>1.044691363788178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043272088434486</v>
+        <v>1.05625805573386</v>
       </c>
       <c r="J8">
-        <v>1.057737056857172</v>
+        <v>1.040865217428182</v>
       </c>
       <c r="K8">
-        <v>1.061102732265271</v>
+        <v>1.049883308338396</v>
       </c>
       <c r="L8">
-        <v>1.068511043581803</v>
+        <v>1.0482462029338</v>
       </c>
       <c r="M8">
-        <v>1.074591637239294</v>
+        <v>1.055298169048675</v>
       </c>
       <c r="N8">
-        <v>1.059239164802045</v>
+        <v>1.042343365425839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050133760179284</v>
+        <v>1.006362202288778</v>
       </c>
       <c r="D9">
-        <v>1.056268243529698</v>
+        <v>1.028502491427002</v>
       </c>
       <c r="E9">
-        <v>1.063262924382915</v>
+        <v>1.02521786829289</v>
       </c>
       <c r="F9">
-        <v>1.069343043700957</v>
+        <v>1.032223156538434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042641315672917</v>
+        <v>1.051901855363132</v>
       </c>
       <c r="J9">
-        <v>1.055845934898941</v>
+        <v>1.031692277994925</v>
       </c>
       <c r="K9">
-        <v>1.059366090991897</v>
+        <v>1.04114946247624</v>
       </c>
       <c r="L9">
-        <v>1.066339058687364</v>
+        <v>1.037914636278458</v>
       </c>
       <c r="M9">
-        <v>1.072400555638437</v>
+        <v>1.044814207072258</v>
       </c>
       <c r="N9">
-        <v>1.057345357233719</v>
+        <v>1.033157399366436</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048333946441267</v>
+        <v>0.9968630302117414</v>
       </c>
       <c r="D10">
-        <v>1.054823163598723</v>
+        <v>1.020951592744628</v>
       </c>
       <c r="E10">
-        <v>1.061532358080504</v>
+        <v>1.016542504444245</v>
       </c>
       <c r="F10">
-        <v>1.067600996900605</v>
+        <v>1.023449912827195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042211030590215</v>
+        <v>1.048749205338856</v>
       </c>
       <c r="J10">
-        <v>1.054581966962958</v>
+        <v>1.025201664254518</v>
       </c>
       <c r="K10">
-        <v>1.058202830325939</v>
+        <v>1.034952590542466</v>
       </c>
       <c r="L10">
-        <v>1.064889146041955</v>
+        <v>1.030619367206461</v>
       </c>
       <c r="M10">
-        <v>1.070937362456106</v>
+        <v>1.037408297889959</v>
       </c>
       <c r="N10">
-        <v>1.056079594318288</v>
+        <v>1.026657568210034</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047554485279862</v>
+        <v>0.9926082941222274</v>
       </c>
       <c r="D11">
-        <v>1.054196885562752</v>
+        <v>1.0175727635522</v>
       </c>
       <c r="E11">
-        <v>1.06078325766702</v>
+        <v>1.012665452570245</v>
       </c>
       <c r="F11">
-        <v>1.066846795358711</v>
+        <v>1.019528355527795</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042022393910516</v>
+        <v>1.047319737933371</v>
       </c>
       <c r="J11">
-        <v>1.054033883159373</v>
+        <v>1.022291842896347</v>
       </c>
       <c r="K11">
-        <v>1.057697815659244</v>
+        <v>1.032170721674954</v>
       </c>
       <c r="L11">
-        <v>1.06426085327521</v>
+        <v>1.027352405374087</v>
       </c>
       <c r="M11">
-        <v>1.070303189335274</v>
+        <v>1.03409115887377</v>
       </c>
       <c r="N11">
-        <v>1.055530732172836</v>
+        <v>1.023743614571773</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047264937566294</v>
+        <v>0.9910051331373076</v>
       </c>
       <c r="D12">
-        <v>1.053964175021989</v>
+        <v>1.016300243816506</v>
       </c>
       <c r="E12">
-        <v>1.060505044467161</v>
+        <v>1.011205991190134</v>
       </c>
       <c r="F12">
-        <v>1.066566667878478</v>
+        <v>1.018052033500183</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041951977042902</v>
+        <v>1.046778594702903</v>
       </c>
       <c r="J12">
-        <v>1.053830182849989</v>
+        <v>1.021195111395897</v>
       </c>
       <c r="K12">
-        <v>1.057510032555787</v>
+        <v>1.031121680914049</v>
       </c>
       <c r="L12">
-        <v>1.064027405753488</v>
+        <v>1.026121605712574</v>
       </c>
       <c r="M12">
-        <v>1.070067538131518</v>
+        <v>1.032841368805957</v>
       </c>
       <c r="N12">
-        <v>1.055326742585647</v>
+        <v>1.022645325586796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04732704751597</v>
+        <v>0.9913500722485835</v>
       </c>
       <c r="D13">
-        <v>1.054014095987131</v>
+        <v>1.016574012326188</v>
       </c>
       <c r="E13">
-        <v>1.060564720526948</v>
+        <v>1.011519947422923</v>
       </c>
       <c r="F13">
-        <v>1.066626755439477</v>
+        <v>1.018369621477994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041967097487369</v>
+        <v>1.046895140871404</v>
       </c>
       <c r="J13">
-        <v>1.053873882591434</v>
+        <v>1.021431099796889</v>
       </c>
       <c r="K13">
-        <v>1.057550321646076</v>
+        <v>1.031347431246531</v>
       </c>
       <c r="L13">
-        <v>1.064077484293684</v>
+        <v>1.026386417714148</v>
       </c>
       <c r="M13">
-        <v>1.070118090248758</v>
+        <v>1.033110270451807</v>
       </c>
       <c r="N13">
-        <v>1.055370504385738</v>
+        <v>1.022881649118386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047530551615969</v>
+        <v>0.9924762498420375</v>
       </c>
       <c r="D14">
-        <v>1.054177651332981</v>
+        <v>1.017467939563944</v>
       </c>
       <c r="E14">
-        <v>1.060760259747255</v>
+        <v>1.012545215362042</v>
       </c>
       <c r="F14">
-        <v>1.066823639601399</v>
+        <v>1.019406731394608</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042016580346931</v>
+        <v>1.047275217536776</v>
       </c>
       <c r="J14">
-        <v>1.054017047631488</v>
+        <v>1.022201516881159</v>
       </c>
       <c r="K14">
-        <v>1.057682297495378</v>
+        <v>1.032084334153779</v>
       </c>
       <c r="L14">
-        <v>1.064241557896054</v>
+        <v>1.02725102662327</v>
       </c>
       <c r="M14">
-        <v>1.070283712195736</v>
+        <v>1.033988217627125</v>
       </c>
       <c r="N14">
-        <v>1.05551387273657</v>
+        <v>1.023653160283283</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047655934359897</v>
+        <v>0.9931670615958463</v>
       </c>
       <c r="D15">
-        <v>1.054278412166208</v>
+        <v>1.018016369111507</v>
       </c>
       <c r="E15">
-        <v>1.060880742662791</v>
+        <v>1.013174313565232</v>
       </c>
       <c r="F15">
-        <v>1.066944948597766</v>
+        <v>1.020043081865201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042047022143878</v>
+        <v>1.047508031023234</v>
       </c>
       <c r="J15">
-        <v>1.054105240733206</v>
+        <v>1.022674059660435</v>
       </c>
       <c r="K15">
-        <v>1.057763585894655</v>
+        <v>1.032536250962644</v>
       </c>
       <c r="L15">
-        <v>1.064342639542662</v>
+        <v>1.02778141407011</v>
       </c>
       <c r="M15">
-        <v>1.070385745251641</v>
+        <v>1.034526776172658</v>
       </c>
       <c r="N15">
-        <v>1.055602191082608</v>
+        <v>1.024126374127508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048385673836425</v>
+        <v>0.9971422962580851</v>
       </c>
       <c r="D16">
-        <v>1.054864715999961</v>
+        <v>1.021173444574783</v>
       </c>
       <c r="E16">
-        <v>1.061582078514915</v>
+        <v>1.016797168267608</v>
       </c>
       <c r="F16">
-        <v>1.067651053144347</v>
+        <v>1.023707484730096</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042223500880967</v>
+        <v>1.048842676306829</v>
       </c>
       <c r="J16">
-        <v>1.054618325034506</v>
+        <v>1.025392605708477</v>
       </c>
       <c r="K16">
-        <v>1.058236318727987</v>
+        <v>1.035135060324984</v>
       </c>
       <c r="L16">
-        <v>1.06493083376753</v>
+        <v>1.030833818824475</v>
       </c>
       <c r="M16">
-        <v>1.070979437710525</v>
+        <v>1.037626030833399</v>
       </c>
       <c r="N16">
-        <v>1.056116004022468</v>
+        <v>1.026848780822758</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048843384207577</v>
+        <v>0.9995969476855573</v>
       </c>
       <c r="D17">
-        <v>1.05523234158136</v>
+        <v>1.023123828334183</v>
       </c>
       <c r="E17">
-        <v>1.062022073221036</v>
+        <v>1.019036570907737</v>
       </c>
       <c r="F17">
-        <v>1.06809400434856</v>
+        <v>1.025972373958088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042333579959686</v>
+        <v>1.049662291443453</v>
       </c>
       <c r="J17">
-        <v>1.054939960585253</v>
+        <v>1.027070623415535</v>
       </c>
       <c r="K17">
-        <v>1.058532499036789</v>
+        <v>1.036738207216274</v>
       </c>
       <c r="L17">
-        <v>1.065299665762632</v>
+        <v>1.032718854708936</v>
       </c>
       <c r="M17">
-        <v>1.071351683883883</v>
+        <v>1.039539839050281</v>
       </c>
       <c r="N17">
-        <v>1.056438096332589</v>
+        <v>1.028529181507432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049110346494656</v>
+        <v>1.001015156788577</v>
       </c>
       <c r="D18">
-        <v>1.055446718439305</v>
+        <v>1.024250990460067</v>
       </c>
       <c r="E18">
-        <v>1.062278738508895</v>
+        <v>1.02033123337173</v>
       </c>
       <c r="F18">
-        <v>1.068352381566501</v>
+        <v>1.027281698238755</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04239756335217</v>
+        <v>1.050134186927319</v>
       </c>
       <c r="J18">
-        <v>1.055127490211269</v>
+        <v>1.028039867504584</v>
       </c>
       <c r="K18">
-        <v>1.05870512914961</v>
+        <v>1.037663850214952</v>
       </c>
       <c r="L18">
-        <v>1.065514753835509</v>
+        <v>1.033808014918749</v>
       </c>
       <c r="M18">
-        <v>1.071568750863069</v>
+        <v>1.040645563535155</v>
       </c>
       <c r="N18">
-        <v>1.056625892272183</v>
+        <v>1.029499802034261</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049201371676467</v>
+        <v>1.001496474863314</v>
       </c>
       <c r="D19">
-        <v>1.055519806447001</v>
+        <v>1.024633579471803</v>
       </c>
       <c r="E19">
-        <v>1.062366258808102</v>
+        <v>1.02077075772615</v>
       </c>
       <c r="F19">
-        <v>1.068440483460619</v>
+        <v>1.027726187583674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042419342068762</v>
+        <v>1.050294058876491</v>
       </c>
       <c r="J19">
-        <v>1.055191420278937</v>
+        <v>1.028368768775704</v>
       </c>
       <c r="K19">
-        <v>1.058763970058688</v>
+        <v>1.037977895060911</v>
       </c>
       <c r="L19">
-        <v>1.065588085636789</v>
+        <v>1.034177665919847</v>
       </c>
       <c r="M19">
-        <v>1.071642755294286</v>
+        <v>1.041020825859925</v>
       </c>
       <c r="N19">
-        <v>1.056689913127881</v>
+        <v>1.029829170382911</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048794277513405</v>
+        <v>0.9993349985021429</v>
       </c>
       <c r="D20">
-        <v>1.055192904313448</v>
+        <v>1.022915660290594</v>
       </c>
       <c r="E20">
-        <v>1.061974863495931</v>
+        <v>1.018797506767235</v>
       </c>
       <c r="F20">
-        <v>1.068046478716535</v>
+        <v>1.025730596529882</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042321792673707</v>
+        <v>1.049574996436953</v>
       </c>
       <c r="J20">
-        <v>1.054905459892471</v>
+        <v>1.026891578931707</v>
       </c>
       <c r="K20">
-        <v>1.058500734817469</v>
+        <v>1.036567188103326</v>
       </c>
       <c r="L20">
-        <v>1.06526009828094</v>
+        <v>1.0325176861039</v>
       </c>
       <c r="M20">
-        <v>1.071311751388492</v>
+        <v>1.039335606089588</v>
       </c>
       <c r="N20">
-        <v>1.056403546644865</v>
+        <v>1.0283498827599</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047470625327055</v>
+        <v>0.992145259700004</v>
       </c>
       <c r="D21">
-        <v>1.054129490655443</v>
+        <v>1.017205191576172</v>
       </c>
       <c r="E21">
-        <v>1.060702677333086</v>
+        <v>1.01224384421489</v>
       </c>
       <c r="F21">
-        <v>1.066765661673292</v>
+        <v>1.019101882259166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042002018508429</v>
+        <v>1.047163579628106</v>
       </c>
       <c r="J21">
-        <v>1.053974892347708</v>
+        <v>1.021975095234619</v>
       </c>
       <c r="K21">
-        <v>1.057643439372405</v>
+        <v>1.031867776663723</v>
       </c>
       <c r="L21">
-        <v>1.0641932442933</v>
+        <v>1.026996907612225</v>
       </c>
       <c r="M21">
-        <v>1.070234943180842</v>
+        <v>1.033730180651988</v>
       </c>
       <c r="N21">
-        <v>1.055471657587452</v>
+        <v>1.023426417092034</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046638269593525</v>
+        <v>0.9874922420433859</v>
       </c>
       <c r="D22">
-        <v>1.053460399841218</v>
+        <v>1.013513108978896</v>
       </c>
       <c r="E22">
-        <v>1.059903011487016</v>
+        <v>1.008010636518865</v>
       </c>
       <c r="F22">
-        <v>1.065960456480527</v>
+        <v>1.014819575367952</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041798945617991</v>
+        <v>1.04558826889557</v>
       </c>
       <c r="J22">
-        <v>1.053389126912124</v>
+        <v>1.018791401596443</v>
       </c>
       <c r="K22">
-        <v>1.057103276850494</v>
+        <v>1.028821538978626</v>
       </c>
       <c r="L22">
-        <v>1.063522056090927</v>
+        <v>1.023425054116502</v>
       </c>
       <c r="M22">
-        <v>1.06955738381574</v>
+        <v>1.030103061326678</v>
       </c>
       <c r="N22">
-        <v>1.054885060297761</v>
+        <v>1.020238202243718</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047079529321466</v>
+        <v>0.9899719959088576</v>
       </c>
       <c r="D23">
-        <v>1.053815143260542</v>
+        <v>1.015480369544844</v>
       </c>
       <c r="E23">
-        <v>1.060326910074835</v>
+        <v>1.010265862251079</v>
       </c>
       <c r="F23">
-        <v>1.066387302258114</v>
+        <v>1.017101014337884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041906789765167</v>
+        <v>1.046429160048567</v>
       </c>
       <c r="J23">
-        <v>1.053699717040386</v>
+        <v>1.020488253307438</v>
       </c>
       <c r="K23">
-        <v>1.057389736130122</v>
+        <v>1.030445412590917</v>
       </c>
       <c r="L23">
-        <v>1.063877905255194</v>
+        <v>1.025328491302769</v>
       </c>
       <c r="M23">
-        <v>1.069916621108016</v>
+        <v>1.032035993840124</v>
       </c>
       <c r="N23">
-        <v>1.055196091499631</v>
+        <v>1.021937463678773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048816466752654</v>
+        <v>0.9994534038179839</v>
       </c>
       <c r="D24">
-        <v>1.05521072448052</v>
+        <v>1.023009754727036</v>
       </c>
       <c r="E24">
-        <v>1.061996195464642</v>
+        <v>1.01890556514273</v>
       </c>
       <c r="F24">
-        <v>1.068067953468747</v>
+        <v>1.025839881553199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042327119532456</v>
+        <v>1.049614460329092</v>
       </c>
       <c r="J24">
-        <v>1.054921049501757</v>
+        <v>1.026972510760588</v>
       </c>
       <c r="K24">
-        <v>1.058515088092585</v>
+        <v>1.036644493400512</v>
       </c>
       <c r="L24">
-        <v>1.065277977262682</v>
+        <v>1.032608617441042</v>
       </c>
       <c r="M24">
-        <v>1.071329795342918</v>
+        <v>1.039427922750429</v>
       </c>
       <c r="N24">
-        <v>1.056419158393185</v>
+        <v>1.028430929521262</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050831604004078</v>
+        <v>1.009928837289188</v>
       </c>
       <c r="D25">
-        <v>1.056828144407369</v>
+        <v>1.031339732591702</v>
       </c>
       <c r="E25">
-        <v>1.063934245849413</v>
+        <v>1.028482160478231</v>
       </c>
       <c r="F25">
-        <v>1.070018700991869</v>
+        <v>1.035523577278286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042806107362481</v>
+        <v>1.053070143725596</v>
       </c>
       <c r="J25">
-        <v>1.056335400425</v>
+        <v>1.034126615134003</v>
       </c>
       <c r="K25">
-        <v>1.059816022254732</v>
+        <v>1.043470267504972</v>
       </c>
       <c r="L25">
-        <v>1.066900905214148</v>
+        <v>1.040653850735088</v>
       </c>
       <c r="M25">
-        <v>1.072967436161269</v>
+        <v>1.04759437386174</v>
       </c>
       <c r="N25">
-        <v>1.057835517856968</v>
+        <v>1.035595193543474</v>
       </c>
     </row>
   </sheetData>
